--- a/edizioni/2019-11-14_cgr-sourcesense/attendees.xlsx
+++ b/edizioni/2019-11-14_cgr-sourcesense/attendees.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2260" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="attendees" localSheetId="0">Foglio1!$A$1:$G$11</definedName>
+    <definedName name="attendees" localSheetId="0">Foglio1!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
-  <si>
-    <t>ï»¿Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -181,16 +178,47 @@
   </si>
   <si>
     <t>77b922e14f0c33442dddb725</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Pietro</t>
+  </si>
+  <si>
+    <t>Aragona</t>
+  </si>
+  <si>
+    <t>pietroaragona@gmail.com</t>
+  </si>
+  <si>
+    <t>1cbab6af9dbcbaa46055fbdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,15 +241,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -574,186 +610,186 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43780.177083333336</v>
+        <v>43783.138888888891</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>43780.369444444441</v>
+        <v>43780.177083333336</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>43778.197916666664</v>
+        <v>43780.369444444441</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>43773.130555555559</v>
+        <v>43778.197916666664</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>43773.338194444441</v>
+        <v>43773.130555555559</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>43769.455555555556</v>
+        <v>43773.338194444441</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>43769.374305555553</v>
+        <v>43769.455555555556</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -761,72 +797,96 @@
         <v>43769.374305555553</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>43769.359027777777</v>
+        <v>43769.374305555553</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>43769.359027777777</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>43769.353472222225</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/edizioni/2019-11-14_cgr-sourcesense/attendees.xlsx
+++ b/edizioni/2019-11-14_cgr-sourcesense/attendees.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>1cbab6af9dbcbaa46055fbdf</t>
+  </si>
+  <si>
+    <t>kaste08@hotmail.it</t>
   </si>
 </sst>
 </file>
@@ -241,8 +244,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,11 +258,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -884,6 +891,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
